--- a/data/income_statement/2digits/size/87_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/87_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>87-Residential care activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>87-Residential care activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>12846.99114</v>
+        <v>13459.68545</v>
       </c>
       <c r="D5" s="47" t="n">
         <v>13815.53839</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>12197.85273</v>
+        <v>12217.17186</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>9079.782720000001</v>
+        <v>9343.63315</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>5535.86552</v>
+        <v>5872.34242</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>7383.903780000001</v>
+        <v>7395.68368</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>8151.656770000001</v>
+        <v>8162.8399</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>8730.489800000001</v>
+        <v>9083.0463</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>5695.280159999999</v>
+        <v>6518.91151</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>11123.31226</v>
+        <v>12348.16901</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>7544.55788</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>8575.055490000001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>10391.241</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>12292.62746</v>
+        <v>12905.32177</v>
       </c>
       <c r="D6" s="48" t="n">
         <v>13604.79001</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>10723.1459</v>
+        <v>10737.65253</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>6976.872270000001</v>
+        <v>7070.7227</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>5258.411190000001</v>
+        <v>5358.47376</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>7039.677750000001</v>
+        <v>7039.67775</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>7649.95689</v>
+        <v>7659.431460000001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>7718.138669999999</v>
+        <v>8067.141169999999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>5089.03727</v>
+        <v>5372.924459999999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>9623.058010000001</v>
+        <v>10847.26531</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>6439.65779</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>7469.44675</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>8612.289000000001</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>8.348090000000001</v>
@@ -1060,50 +976,60 @@
       <c r="M7" s="48" t="n">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>546.0155900000001</v>
+        <v>546.01559</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>196.61291</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>1442.75926</v>
+        <v>1447.57176</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>637.7714100000001</v>
+        <v>807.7714099999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>277.45433</v>
+        <v>513.86866</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>339.1237</v>
+        <v>350.9036</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>501.69988</v>
+        <v>503.40844</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>861.85053</v>
+        <v>865.4045299999999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>589.9215300000001</v>
+        <v>1129.66569</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1406.42855</v>
+        <v>1407.078</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1101.50009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1102.20874</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1778.952</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>7.431850000000001</v>
@@ -1130,7 +1056,7 @@
         <v>16.17053</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>0</v>
+        <v>11.98701</v>
       </c>
       <c r="L9" s="47" t="n">
         <v>13.14995</v>
@@ -1138,11 +1064,16 @@
       <c r="M9" s="47" t="n">
         <v>6.50755</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>35.588</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>7.10473</v>
@@ -1169,7 +1100,7 @@
         <v>16.17053</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>0</v>
+        <v>11.98701</v>
       </c>
       <c r="L10" s="48" t="n">
         <v>7.35245</v>
@@ -1177,11 +1108,16 @@
       <c r="M10" s="48" t="n">
         <v>6.50755</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>35.588</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>0</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0.32712</v>
@@ -1255,89 +1196,104 @@
       <c r="M12" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>12839.55929</v>
+        <v>13452.2536</v>
       </c>
       <c r="D13" s="47" t="n">
         <v>13798.14173</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>12179.34372</v>
+        <v>12198.66285</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>9042.5481</v>
+        <v>9306.398529999999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>5529.2556</v>
+        <v>5865.7325</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>7363.14087</v>
+        <v>7374.92077</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>8139.19405</v>
+        <v>8150.377179999999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>8714.31927</v>
+        <v>9066.875769999999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>5695.280159999999</v>
+        <v>6506.924499999999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>11110.16231</v>
+        <v>12335.01906</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>7538.05033</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>8568.54794</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>10355.653</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>8727.448629999999</v>
+        <v>9323.707759999999</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>9060.352059999999</v>
+        <v>9060.352060000001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>7431.69342</v>
+        <v>7439.70217</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>6041.61303</v>
+        <v>6099.65047</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>4372.79068</v>
+        <v>4504.4427</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>5828.36929</v>
+        <v>5900.231519999999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>5911.633839999999</v>
+        <v>5918.617439999999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>6153.81032</v>
+        <v>6303.846390000001</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>3454.66854</v>
+        <v>3757.03953</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>9881.846879999999</v>
+        <v>10791.8911</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>5270.72806</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>6772.51589</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>7494.434</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>0</v>
@@ -1364,7 +1320,7 @@
         <v>140.03373</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>0</v>
+        <v>42.8247</v>
       </c>
       <c r="L15" s="48" t="n">
         <v>0</v>
@@ -1372,11 +1328,16 @@
       <c r="M15" s="48" t="n">
         <v>27.366</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>193.197</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>2276.63764</v>
@@ -1388,10 +1349,10 @@
         <v>3606.68797</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>2368.93706</v>
+        <v>2368.937060000001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>85.29228999999999</v>
+        <v>115.03965</v>
       </c>
       <c r="H16" s="48" t="n">
         <v>268.09115</v>
@@ -1400,40 +1361,45 @@
         <v>112.87598</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2056.02305</v>
+        <v>2206.05912</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>47.53398</v>
+        <v>171.71499</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>771.94646</v>
+        <v>1373.54963</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>437.75753</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1064.1064</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>327.814</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>6422.99999</v>
+        <v>7019.25912</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>5976.566380000001</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>3825.00545</v>
+        <v>3833.0142</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>3666.95597</v>
+        <v>3674.33987</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>4282.065689999999</v>
+        <v>4383.97035</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>5560.278139999999</v>
+        <v>5632.140369999999</v>
       </c>
       <c r="I17" s="48" t="n">
         <v>5676.01395</v>
@@ -1442,19 +1408,24 @@
         <v>3957.75354</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>3407.13456</v>
+        <v>3542.49984</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>9109.90042</v>
+        <v>9418.341469999999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>4803.75453</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>5679.19349</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>6973.423</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>27.811</v>
@@ -1466,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>5.72</v>
+        <v>56.37354</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>0</v>
@@ -1475,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>122.74391</v>
+        <v>129.72751</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>0</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>1.85</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>4112.11066</v>
+        <v>4128.545840000001</v>
       </c>
       <c r="D19" s="47" t="n">
         <v>4737.78967</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>4747.6503</v>
+        <v>4758.96068</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>3000.93507</v>
+        <v>3206.74806</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1156.46492</v>
+        <v>1361.2898</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1534.77158</v>
+        <v>1474.68925</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2227.56021</v>
+        <v>2231.75974</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2560.50895</v>
+        <v>2763.02938</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>2240.61162</v>
+        <v>2749.88497</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1228.31543</v>
+        <v>1543.12796</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2267.32227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1796.03205</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2861.219</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>4050.12953</v>
+        <v>4131.65675</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>4471.964029999999</v>
+        <v>4482.916539999999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>4971.920690000001</v>
+        <v>5971.38661</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>3022.75529</v>
+        <v>3724.58701</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>2026.8508</v>
+        <v>3361.39566</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>3274.32033</v>
+        <v>4157.281099999999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>4819.09937</v>
+        <v>5542.4146</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>4237.97767</v>
+        <v>4393.91679</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>3365.36637</v>
+        <v>3984.93924</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>5272.55605</v>
+        <v>6115.0451</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>5812.459339999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>6298.69814</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>8892.782999999999</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>2.401</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>576.8501600000001</v>
@@ -1625,10 +1616,10 @@
         <v>351.1912</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>90.20240999999999</v>
+        <v>194.51604</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>208.38373</v>
+        <v>209.45831</v>
       </c>
       <c r="I22" s="48" t="n">
         <v>46.59589999999999</v>
@@ -1637,136 +1628,156 @@
         <v>290.83833</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>14.07908</v>
+        <v>276.19078</v>
       </c>
       <c r="L22" s="48" t="n">
         <v>944.4430999999998</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>351.56328</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>354.37045</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>277.655</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>3473.27937</v>
+        <v>3554.80659</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>4269.81333</v>
+        <v>4280.76584</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>4784.25472</v>
+        <v>5783.72064</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>2671.56409</v>
+        <v>3373.39581</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1936.64839</v>
+        <v>3166.87962</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>3065.9366</v>
+        <v>3947.82279</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>4772.50347</v>
+        <v>5495.818699999999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>3947.13934</v>
+        <v>4103.07846</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>3351.28729</v>
+        <v>3708.74846</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>4328.112949999999</v>
+        <v>5170.602</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>5460.896060000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>5944.32769</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>8612.727000000001</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>61.98112999999998</v>
+        <v>-3.110910000000018</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>265.82564</v>
+        <v>254.87313</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-224.2703899999999</v>
+        <v>-1212.42593</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-21.82022</v>
+        <v>-517.83895</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-870.3858799999999</v>
+        <v>-2000.10586</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-1739.54875</v>
+        <v>-2682.59185</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-2591.53916</v>
+        <v>-3310.654860000001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-1677.46872</v>
+        <v>-1630.88741</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-1124.75475</v>
+        <v>-1235.05427</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-4044.24062</v>
+        <v>-4571.91714</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-3545.13707</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-4502.66609</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-6031.564</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>102.82584</v>
+        <v>117.14944</v>
       </c>
       <c r="D25" s="47" t="n">
         <v>97.79178</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>309.6733</v>
+        <v>375.88601</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1053.61339</v>
+        <v>1136.11998</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>107.40364</v>
+        <v>120.30629</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>37.16725</v>
+        <v>98.34466</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>8.802459999999998</v>
+        <v>117.8973</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>180.22207</v>
+        <v>200.7248</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>29.77443</v>
+        <v>526.74067</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>422.24035</v>
+        <v>1165.13754</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>382.7385199999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>405.17941</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>484.664</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1793,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>0</v>
+        <v>68.59482000000001</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>0.43366</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>70.51102</v>
@@ -1862,16 +1883,16 @@
         <v>16.86531</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>12.09992</v>
+        <v>44.78456</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>34.61675999999999</v>
+        <v>92.81847999999999</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>64.38637</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>35.68637</v>
+        <v>35.9632</v>
       </c>
       <c r="L28" s="48" t="n">
         <v>283.50219</v>
@@ -1879,11 +1900,16 @@
       <c r="M28" s="48" t="n">
         <v>136.4201</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="48" t="n">
+        <v>179.757</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
@@ -1937,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>0</v>
+        <v>3.0855</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>0</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1.98292</v>
@@ -1976,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>0.0376</v>
+        <v>2.3682</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>0</v>
@@ -1988,7 +2024,7 @@
         <v>0.20592</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>0.8325199999999999</v>
+        <v>3.1468</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>2.84289</v>
@@ -1996,50 +2032,60 @@
       <c r="M31" s="48" t="n">
         <v>0.39672</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>5.394</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>17.13229</v>
+        <v>31.45589</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>34.11451</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>17.53708</v>
+        <v>83.74979</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>3.96264</v>
+        <v>86.46923000000001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>17.02254</v>
+        <v>24.50909</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2.37902</v>
+        <v>30.87179</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>6.53132</v>
+        <v>57.42444</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>31.38186</v>
+        <v>48.72891</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>0.40888</v>
+        <v>366.44446</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>52.66826</v>
+        <v>795.5654500000001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>26.3124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>45.49426</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>152.552</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>13.19961</v>
@@ -2141,61 +2197,71 @@
         <v>-32.76105</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>60.11892</v>
+        <v>63.2746</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>-7.15334</v>
+        <v>52.59139</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>82.67335000000001</v>
+        <v>82.67335</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>219.6093</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>222.86833</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>146.961</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>34.56025999999999</v>
+        <v>36.60824</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>85.44493</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>117.31322</v>
+        <v>438.48228</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>460.87492</v>
+        <v>516.56418</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>0.02236</v>
+        <v>44.69255</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2.13482</v>
+        <v>47.40319</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>0.09095</v>
+        <v>126.30016</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>4.142639999999999</v>
+        <v>335.62152</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>28.3937</v>
+        <v>892.45614</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>40.28925000000001</v>
+        <v>1783.58876</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>0.25056</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>479.39884</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1820.913</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>0.0525</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>0</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>6.781359999999999</v>
+        <v>8.82934</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>15.14999</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>9.863169999999998</v>
+        <v>330.13323</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>7.94991</v>
+        <v>41.53152000000001</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>0</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>2.13479</v>
+        <v>47.40316000000001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>0.09028</v>
+        <v>126.29949</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>4.09364</v>
+        <v>311.2335400000001</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>15.0903</v>
+        <v>879.15274</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>15.19035</v>
+        <v>1758.48986</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>0.25053</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>479.39881</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1820.913</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.16167</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>27.56473</v>
@@ -2438,13 +2534,13 @@
         <v>70.29494</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>107.45005</v>
+        <v>108.34905</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>449.0555900000001</v>
+        <v>471.16324</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>0.02236</v>
+        <v>44.69255</v>
       </c>
       <c r="H43" s="48" t="n">
         <v>3e-05</v>
@@ -2453,7 +2549,7 @@
         <v>0.00067</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>0</v>
+        <v>24.33898</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>0</v>
@@ -2464,89 +2560,104 @@
       <c r="M43" s="48" t="n">
         <v>3e-05</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>49.68183000000001</v>
+        <v>50.81695</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>80.12653</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>167.25411</v>
+        <v>368.81846</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>204.03467</v>
+        <v>379.2276899999999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>16.44152</v>
+        <v>142.57883</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>8.651110000000001</v>
+        <v>263.7508</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>88.45653999999999</v>
+        <v>546.9659799999999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>213.27657</v>
+        <v>708.8782199999999</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>115.0615</v>
+        <v>117.26713</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>252.77957</v>
+        <v>389.25934</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>178.34312</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>200.84515</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>104.92</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>49.68183000000001</v>
+        <v>50.81695</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>80.12653</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>167.25411</v>
+        <v>368.81846</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>204.03467</v>
+        <v>379.2276899999999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>16.44152</v>
+        <v>142.57883</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>8.651110000000001</v>
+        <v>263.7508</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>88.45653999999999</v>
+        <v>546.9659799999999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>213.27657</v>
+        <v>633.67626</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>115.0615</v>
+        <v>117.26713</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>252.77957</v>
+        <v>389.25934</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>178.34312</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>200.84515</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>104.92</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>0</v>
@@ -2570,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>0</v>
+        <v>75.20196</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>0</v>
@@ -2581,89 +2692,104 @@
       <c r="M46" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>80.56487999999997</v>
+        <v>26.61334000000001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>198.04596</v>
+        <v>187.09345</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-199.1644199999999</v>
+        <v>-1643.84066</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>366.88358</v>
+        <v>-277.51084</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-779.4461199999998</v>
+        <v>-2067.07095</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-1713.16743</v>
+        <v>-2895.40118</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-2671.28419</v>
+        <v>-3866.0237</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-1714.66586</v>
+        <v>-2474.66235</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-1238.43552</v>
+        <v>-1718.03687</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-3915.06909</v>
+        <v>-5579.627699999999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-3340.99223</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-4777.73067</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-7472.733</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>155.44008</v>
+        <v>156.56303</v>
       </c>
       <c r="D48" s="47" t="n">
         <v>75.09617</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>140.15584</v>
+        <v>141.49678</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>13.34627</v>
+        <v>13.34693</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>10.21829</v>
+        <v>11.17578</v>
       </c>
       <c r="H48" s="47" t="n">
         <v>139.98191</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>164.77453</v>
+        <v>212.85992</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>177.77751</v>
+        <v>180.42651</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>93.60841999999998</v>
+        <v>136.0011</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>783.78579</v>
+        <v>793.05984</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>450.10449</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>478.34475</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>225.129</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0.5932200000000001</v>
@@ -2678,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>0</v>
+        <v>0.01316</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>0</v>
@@ -2698,89 +2824,104 @@
       <c r="M49" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>154.84686</v>
+        <v>155.96981</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>60.05228999999999</v>
+        <v>60.05229</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>140.15584</v>
+        <v>141.49678</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>13.34627</v>
+        <v>13.34693</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>10.21829</v>
+        <v>11.16262</v>
       </c>
       <c r="H50" s="48" t="n">
         <v>139.98191</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>164.77453</v>
+        <v>212.85992</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>177.10151</v>
+        <v>179.75051</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>93.60841999999998</v>
+        <v>136.0011</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>783.78579</v>
+        <v>793.05984</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>450.10449</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>478.34475</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>225.129</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>69.22572000000001</v>
+        <v>69.22574</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>301.6530099999999</v>
+        <v>301.70397</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>2485.12576</v>
+        <v>2499.711420000001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>535.3832199999999</v>
+        <v>535.48676</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>59.18123</v>
+        <v>74.39048999999999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>24.7121</v>
+        <v>26.8104</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>57.64525</v>
+        <v>374.4635099999999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>954.3590599999999</v>
+        <v>1066.01066</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>174.88105</v>
+        <v>621.7269599999998</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1452.89502</v>
+        <v>2152.10374</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>248.78283</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>321.67968</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>183.678</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2804,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>0</v>
+        <v>18.89549</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>0</v>
@@ -2815,17 +2956,22 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>57.915</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>18.10918</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>82.81502</v>
+        <v>82.86598000000001</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>7.89354</v>
@@ -2854,89 +3000,104 @@
       <c r="M53" s="48" t="n">
         <v>168.81821</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>64.41200000000001</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>51.11654</v>
+        <v>51.11656</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>218.83799</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>2477.23222</v>
+        <v>2491.81788</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>408.4689199999999</v>
+        <v>408.57246</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>59.18123</v>
+        <v>74.39048999999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>24.7121</v>
+        <v>26.8104</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>55.46419</v>
+        <v>372.28245</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>954.3440199999999</v>
+        <v>1047.10013</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>174.88105</v>
+        <v>621.72696</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1407.21845</v>
+        <v>2106.42717</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>79.96462000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>152.86147</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>61.351</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>166.77924</v>
+        <v>113.9506300000001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-28.51087999999994</v>
+        <v>-39.51434999999989</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-2544.13434</v>
+        <v>-4002.0553</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-155.15337</v>
+        <v>-799.65067</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-828.40906</v>
+        <v>-2130.28566</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-1597.89762</v>
+        <v>-2782.22967</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-2564.15491</v>
+        <v>-4027.627289999999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-2491.247409999999</v>
+        <v>-3360.2465</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-1319.70815</v>
+        <v>-2203.76273</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-4584.178319999999</v>
+        <v>-6938.6716</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-3139.67057</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-4621.065600000001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-7431.282</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>227.93746</v>
@@ -2957,61 +3118,69 @@
         <v>52.53697999999999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>44.26609</v>
+        <v>44.26609000000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>82.48183999999999</v>
+        <v>83.15572</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>9.086630000000001</v>
+        <v>21.78511</v>
       </c>
       <c r="L56" s="47" t="n">
         <v>57.13006</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>53.11069000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>67.22292</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>95.288</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-61.15822000000001</v>
+        <v>-113.98683</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-331.10298</v>
+        <v>-342.10645</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-2742.20839</v>
+        <v>-4200.12935</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-360.51836</v>
+        <v>-1005.01566</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-882.6452399999999</v>
+        <v>-2184.52184</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-1650.4346</v>
+        <v>-2834.76665</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-2608.421</v>
+        <v>-4071.89338</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-2573.72925</v>
+        <v>-3443.40222</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-1328.79478</v>
+        <v>-2225.54784</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-4641.30838</v>
+        <v>-6995.801659999999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-3192.78126</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-4688.28852</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-7526.57</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>149</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>